--- a/biology/Botanique/Persea_lingue/Persea_lingue.xlsx
+++ b/biology/Botanique/Persea_lingue/Persea_lingue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Persea lingue est une espèce de plantes de la famille des Lauraceae. Elle se rencontre en Argentine et au Chili, dans l'écorégion des forêts tempérées valdiviennes[2],[3]. Elle est menacée par la disparition de son habitat.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Persea lingue est une espèce de plantes de la famille des Lauraceae. Elle se rencontre en Argentine et au Chili, dans l'écorégion des forêts tempérées valdiviennes,. Elle est menacée par la disparition de son habitat.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (20 août 2014)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (20 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 variété Persea lingue var. canescens Gay
 variété Persea lingue var. palustris Gay</t>
         </is>
